--- a/Banco Central/6/1/1/1/Derivados posiciones netas 2021 - Diaria.xlsx
+++ b/Banco Central/6/1/1/1/Derivados posiciones netas 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
   <si>
     <t>Serie</t>
   </si>
@@ -455,6 +455,15 @@
   </si>
   <si>
     <t>28-07-2021</t>
+  </si>
+  <si>
+    <t>29-07-2021</t>
+  </si>
+  <si>
+    <t>30-07-2021</t>
+  </si>
+  <si>
+    <t>02-08-2021</t>
   </si>
 </sst>
 </file>
@@ -812,7 +821,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D144"/>
+  <dimension ref="A1:D147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2834,6 +2843,48 @@
         <v>-7842</v>
       </c>
     </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>147</v>
+      </c>
+      <c r="B145">
+        <v>13273</v>
+      </c>
+      <c r="C145">
+        <v>20518</v>
+      </c>
+      <c r="D145">
+        <v>-7245</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>148</v>
+      </c>
+      <c r="B146">
+        <v>13170</v>
+      </c>
+      <c r="C146">
+        <v>20495</v>
+      </c>
+      <c r="D146">
+        <v>-7325</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" t="s">
+        <v>149</v>
+      </c>
+      <c r="B147">
+        <v>12863</v>
+      </c>
+      <c r="C147">
+        <v>20707</v>
+      </c>
+      <c r="D147">
+        <v>-7844</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Banco Central/6/1/1/1/Derivados posiciones netas 2021 - Diaria.xlsx
+++ b/Banco Central/6/1/1/1/Derivados posiciones netas 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="152">
   <si>
     <t>Serie</t>
   </si>
@@ -464,6 +464,12 @@
   </si>
   <si>
     <t>02-08-2021</t>
+  </si>
+  <si>
+    <t>03-08-2021</t>
+  </si>
+  <si>
+    <t>04-08-2021</t>
   </si>
 </sst>
 </file>
@@ -821,7 +827,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D147"/>
+  <dimension ref="A1:D149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2885,6 +2891,34 @@
         <v>-7844</v>
       </c>
     </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>150</v>
+      </c>
+      <c r="B148">
+        <v>13080</v>
+      </c>
+      <c r="C148">
+        <v>21044</v>
+      </c>
+      <c r="D148">
+        <v>-7963</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>151</v>
+      </c>
+      <c r="B149">
+        <v>13193</v>
+      </c>
+      <c r="C149">
+        <v>21223</v>
+      </c>
+      <c r="D149">
+        <v>-8031</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
